--- a/app/doc/download/parameter_template.xlsx
+++ b/app/doc/download/parameter_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIMIANHUANG\workspace\download-report\megabot\app\doc\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIMIANHUANG\workspace\download-report\megabot\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Select Report Level</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Work Item</t>
   </si>
   <si>
-    <t>9AHES</t>
-  </si>
-  <si>
     <t>CompLevel</t>
   </si>
   <si>
@@ -292,17 +289,14 @@
     <t>Input Field</t>
   </si>
   <si>
-    <t>Receiver Email Address:</t>
-  </si>
-  <si>
-    <t>&lt;= Please input your emaill address in left column</t>
+    <t>YourAccountIDs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,16 +319,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,20 +333,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -396,31 +370,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -438,18 +392,8 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,10 +714,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,81 +732,64 @@
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43132</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="5">
-        <v>43101</v>
-      </c>
-      <c r="D3" s="5">
-        <v>43132</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="8"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D3">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2">
       <formula1>40179</formula1>
       <formula2>72686</formula2>
     </dataValidation>
@@ -876,31 +803,31 @@
           <x14:formula1>
             <xm:f>parameter!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>A3</xm:sqref>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>parameter!$F$1:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>parameter!$H$1:$H$13</xm:f>
           </x14:formula1>
-          <xm:sqref>F3</xm:sqref>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>parameter!$J$1:$J$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
+          <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>parameter!$D$1:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -932,13 +859,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -956,39 +883,39 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -996,19 +923,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
@@ -1016,19 +943,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -1036,19 +963,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -1056,13 +983,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -1070,13 +997,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
@@ -1084,77 +1011,77 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -1162,7 +1089,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -1170,7 +1097,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -1178,7 +1105,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -1186,7 +1113,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
